--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1313728.481772297</v>
+        <v>1309674.356012918</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283203</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>402.7818379626609</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>47.44688981803915</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>144.8586974472227</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.4571321610379</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>74.47326816522963</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>95.81514163764196</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>118.4943067351075</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>62.45439117602642</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1189,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>325.3177998004619</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>52.23490948285971</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>75.96788793061754</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>63.1628130171261</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F19" t="n">
-        <v>18.66234525555497</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>100.5858322992699</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>178.513465597807</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>221.6488161050624</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>139.953744463993</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.4157347120547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>524.4707771085399</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
@@ -4336,46 +4336,46 @@
         <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2305.667535674628</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1974.604648331057</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1621.835993060943</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4406,34 +4406,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380235</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694952</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013.57636781303</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885123</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472787</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392484</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564269</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936619</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400156</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400156</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V4" t="n">
-        <v>2416.0174117868</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
-        <v>2416.0174117868</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>2416.0174117868</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>2195.22483264327</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2034.604709474942</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1665.642192534531</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1307.37649392778</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,25 +4567,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4606,13 +4606,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311.7508871962312</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962312</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1830.511576737339</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1830.511576737339</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W7" t="n">
-        <v>760.5330172377786</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>532.5434663397613</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>311.7508871962312</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959803</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.0549803959803</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,43 +5032,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5108,37 +5108,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756265</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>695.5020655703109</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5506,46 +5506,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841098</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998684</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311989</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>801.6918836311989</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>651.5752442188632</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>503.6621506364701</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5718,7 +5718,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U28" t="n">
-        <v>2160.315914855604</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>129.5921236250085</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6785,22 +6785,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4262.384993990607</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4262.384993990607</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V37" t="n">
-        <v>4262.384993990607</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7210,16 +7210,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7548,22 +7548,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2794.50775589162</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>2794.50775589162</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>2794.50775589162</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878358</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>83.27114962944307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F19" t="n">
-        <v>126.7587027673763</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>44.83521572366135</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>38.89198472948124</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>30.48882721876564</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>45.8481303472993</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>146.569253872598</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>80.9846548059234</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.4162454698826</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937367.7491186918</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186921</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140036</v>
@@ -26331,31 +26331,31 @@
         <v>484287.9598140034</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="L2" t="n">
         <v>484287.9598140035</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="O2" t="n">
-        <v>484287.9598140036</v>
-      </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312015</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852994.904504416</v>
+        <v>-852994.9045044158</v>
       </c>
       <c r="C6" t="n">
-        <v>92118.20065195064</v>
+        <v>92118.20065195052</v>
       </c>
       <c r="D6" t="n">
-        <v>295556.9422640564</v>
+        <v>295556.9422640565</v>
       </c>
       <c r="E6" t="n">
-        <v>47805.82386097289</v>
+        <v>47458.44460661557</v>
       </c>
       <c r="F6" t="n">
-        <v>373218.2856683275</v>
+        <v>372870.9064139706</v>
       </c>
       <c r="G6" t="n">
-        <v>373218.2856683275</v>
+        <v>372870.9064139705</v>
       </c>
       <c r="H6" t="n">
-        <v>373218.2856683274</v>
+        <v>372870.9064139705</v>
       </c>
       <c r="I6" t="n">
-        <v>373218.2856683276</v>
+        <v>372870.9064139706</v>
       </c>
       <c r="J6" t="n">
-        <v>205613.107858345</v>
+        <v>205265.7286039881</v>
       </c>
       <c r="K6" t="n">
-        <v>324108.192962273</v>
+        <v>323760.8137079161</v>
       </c>
       <c r="L6" t="n">
-        <v>373218.2856683276</v>
+        <v>372870.9064139705</v>
       </c>
       <c r="M6" t="n">
-        <v>288163.257732816</v>
+        <v>287815.8784784588</v>
       </c>
       <c r="N6" t="n">
-        <v>373218.2856683277</v>
+        <v>372870.9064139706</v>
       </c>
       <c r="O6" t="n">
-        <v>373218.2856683276</v>
+        <v>372870.9064139707</v>
       </c>
       <c r="P6" t="n">
-        <v>373218.2856683275</v>
+        <v>372870.9064139707</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>190.816623302254</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.584832100039</v>
       </c>
-      <c r="C4" t="n">
-        <v>190.8166233022539</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973548</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000392</v>
-      </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.765864810293124</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>203.5983603104229</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>49.5515495799971</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>107.2789458766053</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>307.4571019070322</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>123.7338076385272</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>168.0286916014835</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>319.4759788962353</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>60.92013885559169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>147.8785773062519</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>166.3497438692351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>381.640437871817</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N24" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647492</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>346.7710205055867</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313206</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427319</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427319</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7989988974579</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N24" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>206.7892464195652</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1309674.356012918</v>
+        <v>1311434.886315704</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>380.8440225948988</v>
       </c>
       <c r="G2" t="n">
-        <v>402.7818379626609</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>171.1971464172148</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>74.47326816522963</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>341.0302325097513</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>95.81514163764196</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>357.0621555633459</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>62.45439117602642</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>95.81514163764156</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>26.703916880933</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.96788793061754</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>20.9284728855285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>26.703916880933</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>24.83266606353065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>203.471764537331</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>120.83264851408</v>
       </c>
       <c r="T28" t="n">
-        <v>178.513465597807</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089713</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65.44930784064577</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>187.2551470558699</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.99837838564352</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577434</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>531.4162778577434</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="D2" t="n">
-        <v>531.4162778577434</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="E2" t="n">
-        <v>531.4162778577434</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="F2" t="n">
-        <v>524.4707771085399</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4412,7 +4412,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
         <v>884.9085321458217</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1463.519709552058</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1463.519709552058</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1463.519709552058</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1463.519709552058</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2034.604709474942</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C5" t="n">
-        <v>1665.642192534531</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1307.37649392778</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1830.511576737339</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1830.511576737339</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>1575.827088531452</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.827088531452</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140706</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.236214140706</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.236214140706</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4810,22 +4810,22 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204828</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>1042.179465010818</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>873.2432820829115</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>723.1266426705757</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>575.2135490881826</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>428.3236015902722</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>260.6207649649912</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,25 +5293,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290469</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,40 +6001,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2324.909903263008</v>
       </c>
       <c r="T28" t="n">
-        <v>2083.791617318188</v>
+        <v>2105.308438285949</v>
       </c>
       <c r="U28" t="n">
-        <v>1794.716390662386</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6454,22 +6454,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>481.447947124485</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>186.6449060441816</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>701.0383482155643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>550.9217088032285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7192,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797186</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>168.7434581780647</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.8807364711618</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>191.8807364711618</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>83.05123379925999</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>60.19363748756457</v>
       </c>
       <c r="T28" t="n">
-        <v>38.89198472948124</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>73.62417772602126</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>80.9846548059234</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>99.26785128072115</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>49.43558426092565</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186921</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186921</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.7491186921</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185701</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.06191857</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="G2" t="n">
-        <v>484287.9598140034</v>
-      </c>
       <c r="H2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312014</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852994.9045044158</v>
+        <v>-852994.904504416</v>
       </c>
       <c r="C6" t="n">
-        <v>92118.20065195052</v>
+        <v>92118.2006519509</v>
       </c>
       <c r="D6" t="n">
-        <v>295556.9422640565</v>
+        <v>295556.9422640566</v>
       </c>
       <c r="E6" t="n">
-        <v>47458.44460661557</v>
+        <v>47771.08593553626</v>
       </c>
       <c r="F6" t="n">
-        <v>372870.9064139706</v>
+        <v>373183.547742892</v>
       </c>
       <c r="G6" t="n">
-        <v>372870.9064139705</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="H6" t="n">
-        <v>372870.9064139705</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="I6" t="n">
-        <v>372870.9064139706</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="J6" t="n">
-        <v>205265.7286039881</v>
+        <v>205578.3699329093</v>
       </c>
       <c r="K6" t="n">
-        <v>323760.8137079161</v>
+        <v>324073.4550368375</v>
       </c>
       <c r="L6" t="n">
-        <v>372870.9064139705</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="M6" t="n">
-        <v>287815.8784784588</v>
+        <v>288128.51980738</v>
       </c>
       <c r="N6" t="n">
-        <v>372870.9064139706</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="O6" t="n">
-        <v>372870.9064139707</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="P6" t="n">
-        <v>372870.9064139707</v>
+        <v>373183.547742892</v>
       </c>
     </row>
   </sheetData>
@@ -26792,34 +26792,34 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>26.03202314681266</v>
       </c>
       <c r="G2" t="n">
-        <v>8.765864810293124</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -27590,7 +27590,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>49.5515495799971</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>307.4571019070322</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>28.7008681687177</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>123.7338076385272</v>
+        <v>61.76674224145242</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>8.210736207661625</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>319.4759788962353</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>48.93987327667922</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>147.8785773062519</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>536.8001439125376</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>332.9841464938405</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34780,10 +34780,10 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>466.4238188159148</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>394.6661099905193</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
